--- a/Reports/ECLAT performances.xlsx
+++ b/Reports/ECLAT performances.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ALESSANDRA\poli\5° ANNO\MINING PATTERNS IN DATA\ProjectsOfMiningPatternsInData\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC09A151-697B-4D8E-9292-0EE336AAA790}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E540171-D3A4-47FA-B03B-DF83F18BAF66}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -90,14 +95,14 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -150,7 +155,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT"/>
+              <a:rPr lang="it-IT" u="none"/>
               <a:t>ECLAT performances -TIME</a:t>
             </a:r>
           </a:p>
@@ -291,40 +296,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>370</c:v>
+                  <c:v>0.37</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>598</c:v>
+                  <c:v>0.59799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1283</c:v>
+                  <c:v>1.2829999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2065</c:v>
+                  <c:v>2.0649999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4183</c:v>
+                  <c:v>4.1829999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8073</c:v>
+                  <c:v>8.0730000000000004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16492</c:v>
+                  <c:v>16.492000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>34431</c:v>
+                  <c:v>34.430999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75340</c:v>
+                  <c:v>75.34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>161944</c:v>
+                  <c:v>161.94399999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>334921</c:v>
+                  <c:v>334.92099999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>716309</c:v>
+                  <c:v>716.30899999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -368,63 +373,66 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$20</c:f>
+              <c:f>(Sheet1!$B$3:$B$20,Sheet1!$B$27)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>139</c:v>
+                  <c:v>0.13900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>167</c:v>
+                  <c:v>0.16700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>174</c:v>
+                  <c:v>0.17399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>217</c:v>
+                  <c:v>0.217</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>176</c:v>
+                  <c:v>0.17599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>199</c:v>
+                  <c:v>0.19900000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>194</c:v>
+                  <c:v>0.19400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>245</c:v>
+                  <c:v>0.245</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>273</c:v>
+                  <c:v>0.27300000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>384</c:v>
+                  <c:v>0.38400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>451</c:v>
+                  <c:v>0.45100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>603</c:v>
+                  <c:v>0.60299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1011</c:v>
+                  <c:v>1.0109999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1553</c:v>
+                  <c:v>1.5529999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6963</c:v>
+                  <c:v>6.9630000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11148</c:v>
+                  <c:v>11.148</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45419</c:v>
+                  <c:v>45.418999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -481,46 +489,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>2242</c:v>
+                  <c:v>2.242</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1733</c:v>
+                  <c:v>1.7330000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1833</c:v>
+                  <c:v>1.833</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1875</c:v>
+                  <c:v>1.875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2283</c:v>
+                  <c:v>2.2829999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2992</c:v>
+                  <c:v>2.992</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3150</c:v>
+                  <c:v>3.15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3814</c:v>
+                  <c:v>3.8140000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4553</c:v>
+                  <c:v>4.5529999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6346</c:v>
+                  <c:v>6.3460000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10977</c:v>
+                  <c:v>10.977</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>55926</c:v>
+                  <c:v>55.926000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>196774</c:v>
+                  <c:v>196.774</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>758288</c:v>
+                  <c:v>758.28800000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -577,58 +585,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>7568</c:v>
+                  <c:v>7.5679999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7221</c:v>
+                  <c:v>7.2210000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6884</c:v>
+                  <c:v>6.8840000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7123</c:v>
+                  <c:v>7.1230000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6441</c:v>
+                  <c:v>6.4409999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6443</c:v>
+                  <c:v>6.4429999999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6872</c:v>
+                  <c:v>6.8719999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6490</c:v>
+                  <c:v>6.49</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6448</c:v>
+                  <c:v>6.4480000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6394</c:v>
+                  <c:v>6.3940000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6324</c:v>
+                  <c:v>6.3239999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6300</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6433</c:v>
+                  <c:v>6.4329999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6166</c:v>
+                  <c:v>6.1660000000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6302</c:v>
+                  <c:v>6.3019999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6476</c:v>
+                  <c:v>6.476</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6499</c:v>
+                  <c:v>6.4989999999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6337</c:v>
+                  <c:v>6.3369999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -685,22 +693,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5275</c:v>
+                  <c:v>5.2750000000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15784</c:v>
+                  <c:v>15.784000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80767</c:v>
+                  <c:v>80.766999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>476671</c:v>
+                  <c:v>476.67099999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2020247</c:v>
+                  <c:v>2020.2470000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7871152</c:v>
+                  <c:v>7871.152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -757,16 +765,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>35430</c:v>
+                  <c:v>35.43</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>378322</c:v>
+                  <c:v>378.322</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1978514</c:v>
+                  <c:v>1978.5139999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6765526</c:v>
+                  <c:v>6765.5259999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -829,31 +837,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>8654</c:v>
+                  <c:v>8.6539999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11214</c:v>
+                  <c:v>11.214</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21189</c:v>
+                  <c:v>21.189</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35859</c:v>
+                  <c:v>35.859000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73523</c:v>
+                  <c:v>73.522999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>106300</c:v>
+                  <c:v>106.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>186928</c:v>
+                  <c:v>186.928</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>340585</c:v>
+                  <c:v>340.58499999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>593290</c:v>
+                  <c:v>593.29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -885,10 +893,65 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" u="none" baseline="0"/>
+                  <a:t>Frequency [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -907,7 +970,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -932,6 +995,7 @@
       <c:valAx>
         <c:axId val="435082472"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -950,7 +1014,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" u="none" baseline="0"/>
+                  <a:t>Time [sec]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -966,7 +1085,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -982,9 +1101,8 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="435079848"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="100000"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1153,8 +1271,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.4735026435055177E-2"/>
-          <c:y val="0.12173009193976708"/>
+          <c:x val="0.14929119851602918"/>
+          <c:y val="0.12587409506963149"/>
           <c:w val="0.66025519043093228"/>
           <c:h val="0.79401857198631043"/>
         </c:manualLayout>
@@ -1270,40 +1388,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>25544704</c:v>
+                  <c:v>24946</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73676472</c:v>
+                  <c:v>71949.6796875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>162786544</c:v>
+                  <c:v>158971.234375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>337492136</c:v>
+                  <c:v>329582.1640625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>234085416</c:v>
+                  <c:v>228599.0390625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>606211176</c:v>
+                  <c:v>592003.1015625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>358329168</c:v>
+                  <c:v>349930.828125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1130572040</c:v>
+                  <c:v>1104074.2578125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>171782016</c:v>
+                  <c:v>167755.875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>580809968</c:v>
+                  <c:v>567197.234375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>504373072</c:v>
+                  <c:v>492551.828125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>773127280</c:v>
+                  <c:v>755007.109375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1423,58 +1541,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>17896800</c:v>
+                  <c:v>17477.34375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30678840</c:v>
+                  <c:v>29959.8046875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32607912</c:v>
+                  <c:v>31843.6640625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39131816</c:v>
+                  <c:v>38214.6640625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17839208</c:v>
+                  <c:v>17421.1015625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17522768</c:v>
+                  <c:v>17112.078125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20645232</c:v>
+                  <c:v>20161.359375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35199800</c:v>
+                  <c:v>34374.8046875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50208680</c:v>
+                  <c:v>49031.9140625</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37101784</c:v>
+                  <c:v>36232.2109375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>117654304</c:v>
+                  <c:v>114896.78125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>97827120</c:v>
+                  <c:v>95534.296875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>164968568</c:v>
+                  <c:v>161102.1171875</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>320116384</c:v>
+                  <c:v>312613.65625</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>499553824</c:v>
+                  <c:v>487845.53125</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>379967928</c:v>
+                  <c:v>371062.4296875</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>576163184</c:v>
+                  <c:v>562659.359375</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>345636608</c:v>
+                  <c:v>337535.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1594,46 +1712,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>227682024</c:v>
+                  <c:v>222345.7265625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>242491904</c:v>
+                  <c:v>236808.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>230171648</c:v>
+                  <c:v>224777</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>213592840</c:v>
+                  <c:v>208586.7578125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>297014312</c:v>
+                  <c:v>290053.0390625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>450110896</c:v>
+                  <c:v>439561.421875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>452317192</c:v>
+                  <c:v>441716.0078125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>249008352</c:v>
+                  <c:v>243172.21875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>989394384</c:v>
+                  <c:v>966205.453125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>604540032</c:v>
+                  <c:v>590371.125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>838410448</c:v>
+                  <c:v>818760.203125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>656468912</c:v>
+                  <c:v>641082.921875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1938040088</c:v>
+                  <c:v>1892617.2734375</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>914853144</c:v>
+                  <c:v>893411.2734375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1753,58 +1871,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>439106976</c:v>
+                  <c:v>428815.40625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>280155192</c:v>
+                  <c:v>273589.0546875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>126834120</c:v>
+                  <c:v>123861.4453125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>530076664</c:v>
+                  <c:v>517652.9921875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>417286312</c:v>
+                  <c:v>407506.1640625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>202549568</c:v>
+                  <c:v>197802.3125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>239281072</c:v>
+                  <c:v>233672.921875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>119473240</c:v>
+                  <c:v>116673.0859375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92624816</c:v>
+                  <c:v>90453.921875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>343752600</c:v>
+                  <c:v>335695.8984375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>105711560</c:v>
+                  <c:v>103233.9453125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>327616152</c:v>
+                  <c:v>319937.6484375</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>328316848</c:v>
+                  <c:v>320621.921875</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>209041656</c:v>
+                  <c:v>204142.2421875</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>227298648</c:v>
+                  <c:v>221971.3359375</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>313015576</c:v>
+                  <c:v>305679.2734375</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>133993808</c:v>
+                  <c:v>130853.328125</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>231839184</c:v>
+                  <c:v>226405.453125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1924,22 +2042,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1032156680</c:v>
+                  <c:v>1007965.5078125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1438098456</c:v>
+                  <c:v>1404393.0234375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1372149264</c:v>
+                  <c:v>1339989.515625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2126723824</c:v>
+                  <c:v>2076878.734375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>889647744</c:v>
+                  <c:v>868796.625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>683711720</c:v>
+                  <c:v>667687.2265625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2059,16 +2177,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1374430128</c:v>
+                  <c:v>1342216.921875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1258038288</c:v>
+                  <c:v>1228553.015625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1395856232</c:v>
+                  <c:v>1363140.8515625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>601880152</c:v>
+                  <c:v>587773.5859375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2194,31 +2312,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1653877520</c:v>
+                  <c:v>1615114.765625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2104764040</c:v>
+                  <c:v>2055433.6328125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2687459056</c:v>
+                  <c:v>2624471.734375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2248454880</c:v>
+                  <c:v>2195756.71875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2552891064</c:v>
+                  <c:v>2493057.6796875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1575632448</c:v>
+                  <c:v>1538703.5625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2110943792</c:v>
+                  <c:v>2061468.546875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1843708664</c:v>
+                  <c:v>1800496.7421875</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1744248704</c:v>
+                  <c:v>1703367.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2250,6 +2368,61 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2298,6 +2471,7 @@
         <c:axId val="469515080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2700000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2315,7 +2489,75 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Memory</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> [KBytes]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.525574566875398E-2"/>
+              <c:y val="0.46218931600944246"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3531,8 +3773,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3559,16 +3801,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>223837</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>705691</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
+      <xdr:rowOff>66953</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>616324</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3893,10 +4135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView tabSelected="1" topLeftCell="E21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3905,42 +4147,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1" t="s">
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="3"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="1"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -4012,64 +4254,64 @@
         <v>0.95</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>0.2</v>
       </c>
       <c r="C3">
-        <v>17896800</v>
+        <v>17477.34375</v>
       </c>
       <c r="D3">
         <v>0.95</v>
       </c>
       <c r="E3">
-        <v>7568</v>
+        <v>7.5679999999999996</v>
       </c>
       <c r="F3">
-        <v>439106976</v>
+        <v>428815.40625</v>
       </c>
       <c r="G3">
         <v>0.95</v>
       </c>
       <c r="H3">
-        <v>2242</v>
+        <v>2.242</v>
       </c>
       <c r="I3">
-        <v>227682024</v>
+        <v>222345.7265625</v>
       </c>
       <c r="J3">
         <v>0.95</v>
       </c>
       <c r="K3">
-        <v>8654</v>
+        <v>8.6539999999999999</v>
       </c>
       <c r="L3">
-        <v>1653877520</v>
+        <v>1615114.765625</v>
       </c>
       <c r="M3">
         <v>0.95</v>
       </c>
       <c r="N3">
-        <v>370</v>
+        <v>0.37</v>
       </c>
       <c r="O3">
-        <v>25544704</v>
+        <v>24946</v>
       </c>
       <c r="P3">
         <v>0.95</v>
       </c>
       <c r="Q3">
-        <v>5275</v>
+        <v>5.2750000000000004</v>
       </c>
       <c r="R3">
-        <v>1032156680</v>
+        <v>1007965.5078125</v>
       </c>
       <c r="S3">
         <v>0.95</v>
       </c>
       <c r="T3">
-        <v>35430</v>
+        <v>35.43</v>
       </c>
       <c r="U3">
-        <v>1374430128</v>
+        <v>1342216.921875</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -4077,64 +4319,64 @@
         <v>0.9</v>
       </c>
       <c r="B4">
-        <v>139</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="C4">
-        <v>30678840</v>
+        <v>29959.8046875</v>
       </c>
       <c r="D4">
         <v>0.9</v>
       </c>
       <c r="E4">
-        <v>7221</v>
+        <v>7.2210000000000001</v>
       </c>
       <c r="F4">
-        <v>280155192</v>
+        <v>273589.0546875</v>
       </c>
       <c r="G4">
         <v>0.9</v>
       </c>
       <c r="H4">
-        <v>1733</v>
+        <v>1.7330000000000001</v>
       </c>
       <c r="I4">
-        <v>242491904</v>
+        <v>236808.5</v>
       </c>
       <c r="J4">
         <v>0.9</v>
       </c>
       <c r="K4">
-        <v>11214</v>
+        <v>11.214</v>
       </c>
       <c r="L4">
-        <v>2104764040</v>
+        <v>2055433.6328125</v>
       </c>
       <c r="M4">
         <v>0.9</v>
       </c>
       <c r="N4">
-        <v>598</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="O4">
-        <v>73676472</v>
+        <v>71949.6796875</v>
       </c>
       <c r="P4">
         <v>0.9</v>
       </c>
       <c r="Q4">
-        <v>15784</v>
+        <v>15.784000000000001</v>
       </c>
       <c r="R4">
-        <v>1438098456</v>
+        <v>1404393.0234375</v>
       </c>
       <c r="S4">
         <v>0.9</v>
       </c>
       <c r="T4">
-        <v>378322</v>
+        <v>378.322</v>
       </c>
       <c r="U4">
-        <v>1258038288</v>
+        <v>1228553.015625</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -4142,64 +4384,64 @@
         <v>0.85</v>
       </c>
       <c r="B5">
-        <v>167</v>
+        <v>0.16700000000000001</v>
       </c>
       <c r="C5">
-        <v>32607912</v>
+        <v>31843.6640625</v>
       </c>
       <c r="D5">
         <v>0.85</v>
       </c>
       <c r="E5">
-        <v>6884</v>
+        <v>6.8840000000000003</v>
       </c>
       <c r="F5">
-        <v>126834120</v>
+        <v>123861.4453125</v>
       </c>
       <c r="G5">
         <v>0.85</v>
       </c>
       <c r="H5">
-        <v>1833</v>
+        <v>1.833</v>
       </c>
       <c r="I5">
-        <v>230171648</v>
+        <v>224777</v>
       </c>
       <c r="J5">
         <v>0.85</v>
       </c>
       <c r="K5">
-        <v>21189</v>
+        <v>21.189</v>
       </c>
       <c r="L5">
-        <v>2687459056</v>
+        <v>2624471.734375</v>
       </c>
       <c r="M5">
         <v>0.85</v>
       </c>
       <c r="N5">
-        <v>1283</v>
+        <v>1.2829999999999999</v>
       </c>
       <c r="O5">
-        <v>162786544</v>
+        <v>158971.234375</v>
       </c>
       <c r="P5">
         <v>0.85</v>
       </c>
       <c r="Q5">
-        <v>80767</v>
+        <v>80.766999999999996</v>
       </c>
       <c r="R5">
-        <v>1372149264</v>
+        <v>1339989.515625</v>
       </c>
       <c r="S5">
         <v>0.85</v>
       </c>
       <c r="T5">
-        <v>1978514</v>
+        <v>1978.5139999999999</v>
       </c>
       <c r="U5">
-        <v>1395856232</v>
+        <v>1363140.8515625</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -4207,64 +4449,64 @@
         <v>0.8</v>
       </c>
       <c r="B6">
-        <v>174</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="C6">
-        <v>39131816</v>
+        <v>38214.6640625</v>
       </c>
       <c r="D6">
         <v>0.8</v>
       </c>
       <c r="E6">
-        <v>7123</v>
+        <v>7.1230000000000002</v>
       </c>
       <c r="F6">
-        <v>530076664</v>
+        <v>517652.9921875</v>
       </c>
       <c r="G6">
         <v>0.8</v>
       </c>
       <c r="H6">
-        <v>1875</v>
+        <v>1.875</v>
       </c>
       <c r="I6">
-        <v>213592840</v>
+        <v>208586.7578125</v>
       </c>
       <c r="J6">
         <v>0.8</v>
       </c>
       <c r="K6">
-        <v>35859</v>
+        <v>35.859000000000002</v>
       </c>
       <c r="L6">
-        <v>2248454880</v>
+        <v>2195756.71875</v>
       </c>
       <c r="M6">
         <v>0.8</v>
       </c>
       <c r="N6">
-        <v>2065</v>
+        <v>2.0649999999999999</v>
       </c>
       <c r="O6">
-        <v>337492136</v>
+        <v>329582.1640625</v>
       </c>
       <c r="P6">
         <v>0.8</v>
       </c>
       <c r="Q6">
-        <v>476671</v>
+        <v>476.67099999999999</v>
       </c>
       <c r="R6">
-        <v>2126723824</v>
+        <v>2076878.734375</v>
       </c>
       <c r="S6">
         <v>0.8</v>
       </c>
       <c r="T6">
-        <v>6765526</v>
+        <v>6765.5259999999998</v>
       </c>
       <c r="U6">
-        <v>601880152</v>
+        <v>587773.5859375</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -4272,55 +4514,55 @@
         <v>0.75</v>
       </c>
       <c r="B7">
-        <v>217</v>
+        <v>0.217</v>
       </c>
       <c r="C7">
-        <v>17839208</v>
+        <v>17421.1015625</v>
       </c>
       <c r="D7">
         <v>0.75</v>
       </c>
       <c r="E7">
-        <v>6441</v>
+        <v>6.4409999999999998</v>
       </c>
       <c r="F7">
-        <v>417286312</v>
+        <v>407506.1640625</v>
       </c>
       <c r="G7">
         <v>0.75</v>
       </c>
       <c r="H7">
-        <v>2283</v>
+        <v>2.2829999999999999</v>
       </c>
       <c r="I7">
-        <v>297014312</v>
+        <v>290053.0390625</v>
       </c>
       <c r="J7">
         <v>0.75</v>
       </c>
       <c r="K7">
-        <v>73523</v>
+        <v>73.522999999999996</v>
       </c>
       <c r="L7">
-        <v>2552891064</v>
+        <v>2493057.6796875</v>
       </c>
       <c r="M7">
         <v>0.75</v>
       </c>
       <c r="N7">
-        <v>4183</v>
+        <v>4.1829999999999998</v>
       </c>
       <c r="O7">
-        <v>234085416</v>
+        <v>228599.0390625</v>
       </c>
       <c r="P7">
         <v>0.75</v>
       </c>
       <c r="Q7">
-        <v>2020247</v>
+        <v>2020.2470000000001</v>
       </c>
       <c r="R7">
-        <v>889647744</v>
+        <v>868796.625</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -4328,55 +4570,55 @@
         <v>0.7</v>
       </c>
       <c r="B8">
-        <v>176</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="C8">
-        <v>17522768</v>
+        <v>17112.078125</v>
       </c>
       <c r="D8">
         <v>0.7</v>
       </c>
       <c r="E8">
-        <v>6443</v>
+        <v>6.4429999999999996</v>
       </c>
       <c r="F8">
-        <v>202549568</v>
+        <v>197802.3125</v>
       </c>
       <c r="G8">
         <v>0.7</v>
       </c>
       <c r="H8">
-        <v>2992</v>
+        <v>2.992</v>
       </c>
       <c r="I8">
-        <v>450110896</v>
+        <v>439561.421875</v>
       </c>
       <c r="J8">
         <v>0.7</v>
       </c>
       <c r="K8">
-        <v>106300</v>
+        <v>106.3</v>
       </c>
       <c r="L8">
-        <v>1575632448</v>
+        <v>1538703.5625</v>
       </c>
       <c r="M8">
         <v>0.7</v>
       </c>
       <c r="N8">
-        <v>8073</v>
+        <v>8.0730000000000004</v>
       </c>
       <c r="O8">
-        <v>606211176</v>
+        <v>592003.1015625</v>
       </c>
       <c r="P8">
         <v>0.7</v>
       </c>
       <c r="Q8">
-        <v>7871152</v>
+        <v>7871.152</v>
       </c>
       <c r="R8">
-        <v>683711720</v>
+        <v>667687.2265625</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -4384,46 +4626,46 @@
         <v>0.65</v>
       </c>
       <c r="B9">
-        <v>199</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="C9">
-        <v>20645232</v>
+        <v>20161.359375</v>
       </c>
       <c r="D9">
         <v>0.65</v>
       </c>
       <c r="E9">
-        <v>6872</v>
+        <v>6.8719999999999999</v>
       </c>
       <c r="F9">
-        <v>239281072</v>
+        <v>233672.921875</v>
       </c>
       <c r="G9">
         <v>0.65</v>
       </c>
       <c r="H9">
-        <v>3150</v>
+        <v>3.15</v>
       </c>
       <c r="I9">
-        <v>452317192</v>
+        <v>441716.0078125</v>
       </c>
       <c r="J9">
         <v>0.65</v>
       </c>
       <c r="K9">
-        <v>186928</v>
+        <v>186.928</v>
       </c>
       <c r="L9">
-        <v>2110943792</v>
+        <v>2061468.546875</v>
       </c>
       <c r="M9">
         <v>0.65</v>
       </c>
       <c r="N9">
-        <v>16492</v>
+        <v>16.492000000000001</v>
       </c>
       <c r="O9">
-        <v>358329168</v>
+        <v>349930.828125</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -4431,46 +4673,46 @@
         <v>0.6</v>
       </c>
       <c r="B10">
-        <v>194</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="C10">
-        <v>35199800</v>
+        <v>34374.8046875</v>
       </c>
       <c r="D10">
         <v>0.6</v>
       </c>
       <c r="E10">
-        <v>6490</v>
+        <v>6.49</v>
       </c>
       <c r="F10">
-        <v>119473240</v>
+        <v>116673.0859375</v>
       </c>
       <c r="G10">
         <v>0.6</v>
       </c>
       <c r="H10">
-        <v>3814</v>
+        <v>3.8140000000000001</v>
       </c>
       <c r="I10">
-        <v>249008352</v>
+        <v>243172.21875</v>
       </c>
       <c r="J10">
         <v>0.6</v>
       </c>
       <c r="K10">
-        <v>340585</v>
+        <v>340.58499999999998</v>
       </c>
       <c r="L10">
-        <v>1843708664</v>
+        <v>1800496.7421875</v>
       </c>
       <c r="M10">
         <v>0.6</v>
       </c>
       <c r="N10">
-        <v>34431</v>
+        <v>34.430999999999997</v>
       </c>
       <c r="O10">
-        <v>1130572040</v>
+        <v>1104074.2578125</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -4478,46 +4720,46 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="B11">
-        <v>245</v>
+        <v>0.245</v>
       </c>
       <c r="C11">
-        <v>50208680</v>
+        <v>49031.9140625</v>
       </c>
       <c r="D11">
         <v>0.55000000000000004</v>
       </c>
       <c r="E11">
-        <v>6448</v>
+        <v>6.4480000000000004</v>
       </c>
       <c r="F11">
-        <v>92624816</v>
+        <v>90453.921875</v>
       </c>
       <c r="G11">
         <v>0.55000000000000004</v>
       </c>
       <c r="H11">
-        <v>4553</v>
+        <v>4.5529999999999999</v>
       </c>
       <c r="I11">
-        <v>989394384</v>
+        <v>966205.453125</v>
       </c>
       <c r="J11">
         <v>0.55000000000000004</v>
       </c>
       <c r="K11">
-        <v>593290</v>
+        <v>593.29</v>
       </c>
       <c r="L11">
-        <v>1744248704</v>
+        <v>1703367.875</v>
       </c>
       <c r="M11">
         <v>0.55000000000000004</v>
       </c>
       <c r="N11">
-        <v>75340</v>
+        <v>75.34</v>
       </c>
       <c r="O11">
-        <v>171782016</v>
+        <v>167755.875</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
@@ -4525,37 +4767,37 @@
         <v>0.5</v>
       </c>
       <c r="B12">
-        <v>273</v>
+        <v>0.27300000000000002</v>
       </c>
       <c r="C12">
-        <v>37101784</v>
+        <v>36232.2109375</v>
       </c>
       <c r="D12">
         <v>0.5</v>
       </c>
       <c r="E12">
-        <v>6394</v>
+        <v>6.3940000000000001</v>
       </c>
       <c r="F12">
-        <v>343752600</v>
+        <v>335695.8984375</v>
       </c>
       <c r="G12">
         <v>0.5</v>
       </c>
       <c r="H12">
-        <v>6346</v>
+        <v>6.3460000000000001</v>
       </c>
       <c r="I12">
-        <v>604540032</v>
+        <v>590371.125</v>
       </c>
       <c r="M12">
         <v>0.5</v>
       </c>
       <c r="N12">
-        <v>161944</v>
+        <v>161.94399999999999</v>
       </c>
       <c r="O12">
-        <v>580809968</v>
+        <v>567197.234375</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -4563,37 +4805,37 @@
         <v>0.45</v>
       </c>
       <c r="B13">
-        <v>384</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="C13">
-        <v>117654304</v>
+        <v>114896.78125</v>
       </c>
       <c r="D13">
         <v>0.45</v>
       </c>
       <c r="E13">
-        <v>6324</v>
+        <v>6.3239999999999998</v>
       </c>
       <c r="F13">
-        <v>105711560</v>
+        <v>103233.9453125</v>
       </c>
       <c r="G13">
         <v>0.45</v>
       </c>
       <c r="H13">
-        <v>10977</v>
+        <v>10.977</v>
       </c>
       <c r="I13">
-        <v>838410448</v>
+        <v>818760.203125</v>
       </c>
       <c r="M13">
         <v>0.45</v>
       </c>
       <c r="N13">
-        <v>334921</v>
+        <v>334.92099999999999</v>
       </c>
       <c r="O13">
-        <v>504373072</v>
+        <v>492551.828125</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
@@ -4601,37 +4843,37 @@
         <v>0.4</v>
       </c>
       <c r="B14">
-        <v>451</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="C14">
-        <v>97827120</v>
+        <v>95534.296875</v>
       </c>
       <c r="D14">
         <v>0.4</v>
       </c>
       <c r="E14">
-        <v>6300</v>
+        <v>6.3</v>
       </c>
       <c r="F14">
-        <v>327616152</v>
+        <v>319937.6484375</v>
       </c>
       <c r="G14">
         <v>0.4</v>
       </c>
       <c r="H14">
-        <v>55926</v>
+        <v>55.926000000000002</v>
       </c>
       <c r="I14">
-        <v>656468912</v>
+        <v>641082.921875</v>
       </c>
       <c r="M14">
         <v>0.4</v>
       </c>
       <c r="N14">
-        <v>716309</v>
+        <v>716.30899999999997</v>
       </c>
       <c r="O14">
-        <v>773127280</v>
+        <v>755007.109375</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
@@ -4639,28 +4881,28 @@
         <v>0.35</v>
       </c>
       <c r="B15">
-        <v>603</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="C15">
-        <v>164968568</v>
+        <v>161102.1171875</v>
       </c>
       <c r="D15">
         <v>0.35</v>
       </c>
       <c r="E15">
-        <v>6433</v>
+        <v>6.4329999999999998</v>
       </c>
       <c r="F15">
-        <v>328316848</v>
+        <v>320621.921875</v>
       </c>
       <c r="G15">
         <v>0.35</v>
       </c>
       <c r="H15">
-        <v>196774</v>
+        <v>196.774</v>
       </c>
       <c r="I15">
-        <v>1938040088</v>
+        <v>1892617.2734375</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -4668,28 +4910,28 @@
         <v>0.3</v>
       </c>
       <c r="B16">
-        <v>1011</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="C16">
-        <v>320116384</v>
+        <v>312613.65625</v>
       </c>
       <c r="D16">
         <v>0.3</v>
       </c>
       <c r="E16">
-        <v>6166</v>
+        <v>6.1660000000000004</v>
       </c>
       <c r="F16">
-        <v>209041656</v>
+        <v>204142.2421875</v>
       </c>
       <c r="G16">
         <v>0.3</v>
       </c>
       <c r="H16">
-        <v>758288</v>
+        <v>758.28800000000001</v>
       </c>
       <c r="I16">
-        <v>914853144</v>
+        <v>893411.2734375</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -4697,19 +4939,19 @@
         <v>0.25</v>
       </c>
       <c r="B17">
-        <v>1553</v>
+        <v>1.5529999999999999</v>
       </c>
       <c r="C17">
-        <v>499553824</v>
+        <v>487845.53125</v>
       </c>
       <c r="D17">
         <v>0.25</v>
       </c>
       <c r="E17">
-        <v>6302</v>
+        <v>6.3019999999999996</v>
       </c>
       <c r="F17">
-        <v>227298648</v>
+        <v>221971.3359375</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -4717,19 +4959,19 @@
         <v>0.2</v>
       </c>
       <c r="B18">
-        <v>6963</v>
+        <v>6.9630000000000001</v>
       </c>
       <c r="C18">
-        <v>379967928</v>
+        <v>371062.4296875</v>
       </c>
       <c r="D18">
         <v>0.2</v>
       </c>
       <c r="E18">
-        <v>6476</v>
+        <v>6.476</v>
       </c>
       <c r="F18">
-        <v>313015576</v>
+        <v>305679.2734375</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -4737,19 +4979,19 @@
         <v>0.15</v>
       </c>
       <c r="B19">
-        <v>11148</v>
+        <v>11.148</v>
       </c>
       <c r="C19">
-        <v>576163184</v>
+        <v>562659.359375</v>
       </c>
       <c r="D19">
         <v>0.15</v>
       </c>
       <c r="E19">
-        <v>6499</v>
+        <v>6.4989999999999997</v>
       </c>
       <c r="F19">
-        <v>133993808</v>
+        <v>130853.328125</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -4757,19 +4999,29 @@
         <v>9.99999999999997E-2</v>
       </c>
       <c r="B20">
-        <v>45419</v>
+        <v>45.418999999999997</v>
       </c>
       <c r="C20">
-        <v>345636608</v>
+        <v>337535.75</v>
       </c>
       <c r="D20">
         <v>9.99999999999997E-2</v>
       </c>
       <c r="E20">
-        <v>6337</v>
+        <v>6.3369999999999997</v>
       </c>
       <c r="F20">
-        <v>231839184</v>
+        <v>226405.453125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>1024</v>
       </c>
     </row>
   </sheetData>
@@ -4783,11 +5035,11 @@
     <mergeCell ref="M1:O1"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Reports/ECLAT performances.xlsx
+++ b/Reports/ECLAT performances.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\ALESSANDRA\poli\5° ANNO\MINING PATTERNS IN DATA\ProjectsOfMiningPatternsInData\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E540171-D3A4-47FA-B03B-DF83F18BAF66}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FF93C2-D0B2-4A0A-835D-02F35654BCD8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1231,8 +1231,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.40451903631568159"/>
-          <c:y val="2.6936020344118673E-2"/>
+          <c:x val="0.23628230700229974"/>
+          <c:y val="2.9094714577748031E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1297,7 +1297,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1308,11 +1308,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:srgbClr val="0070C0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1450,7 +1450,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1461,11 +1461,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -3766,13 +3766,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
+      <xdr:colOff>493059</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
+      <xdr:colOff>695326</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -4137,8 +4137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W30" sqref="W30"/>
+    <sheetView tabSelected="1" topLeftCell="D21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
